--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_243.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_243.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(131.46, 133.76)]</t>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:11.500000', '0:00:28.960000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4385964912280702</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[('0:00:20.080000', '0:00:23.200000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/b7']]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972)]</t>
+          <t>[('0:00:39.580000', '0:00:46.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1458885941644562</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'A', 'E']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.664331, 20.660521)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.436031, 21.24102)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_140</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:13.640000', '0:00:43.660000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.38, 43.34)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.82, 6.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
